--- a/AnnotationExample.xlsx
+++ b/AnnotationExample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminblum/Desktop/Pipeline Annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CBDCE340-0DA0-8C4F-A971-81D9765E254D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{78F0EC8D-12B6-E845-A939-B29C6FB17E2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44920" yWindow="-6760" windowWidth="28040" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,9 +115,6 @@
     <t>Protein Groups (MQ)</t>
   </si>
   <si>
-    <t>Sites (MQ)</t>
-  </si>
-  <si>
     <t>Group1</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>Group1-4</t>
+  </si>
+  <si>
+    <t>Phospho Sites (MQ)</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -656,6 +656,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1015,14 +1018,14 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1033,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1054,34 +1057,34 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1096,34 +1099,34 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1132,13 +1135,13 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1188,7 +1191,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -1225,10 +1228,10 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="dmccOv7mSZXS4mgVf7wOtw/ahsBC/W+WlIlqts+5MqUpW1nHuNqQczPwHUqELnpnY6wZUk9r2cI9bkUBQYCGAg==" saltValue="sMsb4xTzVyeKJe+ZhJ+SJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UPp8U1n2g+gRFpIrafr0o5lN+pwSm2oP7dOA66uEGfm3VwpPVIdG4ok1QUoY3x/Aog5Xt38Uf/faDVBIDWGvbA==" saltValue="irgJnKLGcNFYthFxz6LwTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B33" xr:uid="{5408F66D-27C7-8B40-9DB6-9D4D7FB864E2}">
-      <formula1>"Protein Groups (MQ),Sites (MQ)"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B40" xr:uid="{86CE9669-6A59-A745-A6C1-D138788AD174}">
+      <formula1>"Protein Groups (MQ),Phospho Sites (MQ), Other Sites (MQ)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AnnotationExample.xlsx
+++ b/AnnotationExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminblum/Desktop/Pipeline Annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{78F0EC8D-12B6-E845-A939-B29C6FB17E2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D0106448-4B24-8A44-93A2-938FC8D481CE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44920" yWindow="-6760" windowWidth="28040" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,7 +1018,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1228,10 +1228,10 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UPp8U1n2g+gRFpIrafr0o5lN+pwSm2oP7dOA66uEGfm3VwpPVIdG4ok1QUoY3x/Aog5Xt38Uf/faDVBIDWGvbA==" saltValue="irgJnKLGcNFYthFxz6LwTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uOwR7PHB+fdd9e8a78eje8zZ9TnqlkpeyF/xjekybpTKYeS2YxfdiUCcRAN3JMKntctzE8sqqy2TVRqW5Ni4OA==" saltValue="6BFY3WStXjfExsDO/7oKiA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B40" xr:uid="{86CE9669-6A59-A745-A6C1-D138788AD174}">
-      <formula1>"Protein Groups (MQ),Phospho Sites (MQ), Other Sites (MQ)"</formula1>
+      <formula1>"Protein Groups (MQ),Phospho Sites (MQ), Other Sites (MQ), Generic"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
